--- a/sample-dataset-3.xlsx
+++ b/sample-dataset-3.xlsx
@@ -19,10 +19,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>Achived</t>
   </si>
   <si>
-    <t>Outoff</t>
+    <t>Decided</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C32"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
